--- a/Annotations/Old/MobyDick.xlsx
+++ b/Annotations/Old/MobyDick.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="mobydick" sheetId="1" r:id="rId1"/>
@@ -2276,14 +2276,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="42" style="2" customWidth="1"/>
     <col min="4" max="4" width="52.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.5546875" style="2" customWidth="1"/>
@@ -2345,7 +2346,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.73930999337711312</v>
+        <v>0.62027188954173296</v>
       </c>
       <c r="B2" s="2">
         <v>373</v>
@@ -2369,7 +2370,7 @@
     <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15719224011867194</v>
+        <v>0.18407749726277656</v>
       </c>
       <c r="B3" s="2">
         <v>399</v>
@@ -2393,7 +2394,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58731124558174996</v>
+        <v>0.38879307584524248</v>
       </c>
       <c r="B4" s="2">
         <v>161</v>
@@ -2417,7 +2418,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63661955221986533</v>
+        <v>8.8387567756657681E-2</v>
       </c>
       <c r="B5" s="2">
         <v>23</v>
@@ -2438,7 +2439,7 @@
     <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62691900647680332</v>
+        <v>0.44750609145983267</v>
       </c>
       <c r="B6" s="2">
         <v>42</v>
@@ -2462,7 +2463,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96859773467674914</v>
+        <v>0.35410908280781483</v>
       </c>
       <c r="B7" s="2">
         <v>307</v>
@@ -2489,7 +2490,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59237628829368161</v>
+        <v>0.85226313028552014</v>
       </c>
       <c r="B8" s="2">
         <v>379</v>
@@ -2513,7 +2514,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37215722283319341</v>
+        <v>0.12008719220165176</v>
       </c>
       <c r="B9" s="2">
         <v>438</v>
@@ -2537,7 +2538,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8711307398639303</v>
+        <v>0.87752282191750997</v>
       </c>
       <c r="B10" s="2">
         <v>95</v>
@@ -2561,7 +2562,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35949217481684048</v>
+        <v>0.99705556017325581</v>
       </c>
       <c r="B11" s="2">
         <v>37</v>
@@ -2585,7 +2586,7 @@
     <row r="12" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87274970692626808</v>
+        <v>0.21733430626963623</v>
       </c>
       <c r="B12" s="2">
         <v>317</v>
@@ -2612,7 +2613,7 @@
     <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17101290230929767</v>
+        <v>0.77143663985731115</v>
       </c>
       <c r="B13" s="2">
         <v>39</v>
@@ -2633,7 +2634,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79809714356195793</v>
+        <v>0.28190910057771457</v>
       </c>
       <c r="B14" s="2">
         <v>367</v>
@@ -2657,7 +2658,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20633862655497481</v>
+        <v>0.3150723737095279</v>
       </c>
       <c r="B15" s="2">
         <v>134</v>
@@ -2678,7 +2679,7 @@
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20161703971878386</v>
+        <v>9.3671957747593848E-2</v>
       </c>
       <c r="B16" s="2">
         <v>260</v>
@@ -2702,7 +2703,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40623682331093414</v>
+        <v>0.12562004791809112</v>
       </c>
       <c r="B17" s="2">
         <v>413</v>
@@ -2726,7 +2727,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79889947513342285</v>
+        <v>0.89014492353554842</v>
       </c>
       <c r="B18" s="2">
         <v>242</v>
@@ -2747,7 +2748,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93169754696179963</v>
+        <v>0.6809237079306294</v>
       </c>
       <c r="B19" s="2">
         <v>271</v>
@@ -2774,7 +2775,7 @@
     <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55015566936434246</v>
+        <v>0.64545080650606679</v>
       </c>
       <c r="B20" s="2">
         <v>321</v>
@@ -2801,7 +2802,7 @@
     <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34072061450662783</v>
+        <v>0.33299289582853275</v>
       </c>
       <c r="B21" s="2">
         <v>200</v>
@@ -2822,7 +2823,7 @@
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0679193371211868E-2</v>
+        <v>0.83204844962516022</v>
       </c>
       <c r="B22" s="2">
         <v>253</v>
@@ -2846,7 +2847,7 @@
     <row r="23" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40761197680271188</v>
+        <v>5.3518492248899263E-2</v>
       </c>
       <c r="B23" s="2">
         <v>78</v>
@@ -2870,7 +2871,7 @@
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45427931098600804</v>
+        <v>0.43867913765323086</v>
       </c>
       <c r="B24" s="2">
         <v>27</v>
@@ -2891,7 +2892,7 @@
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43586794219226399</v>
+        <v>0.49279353200063014</v>
       </c>
       <c r="B25" s="2">
         <v>67</v>
@@ -2915,7 +2916,7 @@
     <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.846149769999065E-2</v>
+        <v>0.20486311656046385</v>
       </c>
       <c r="B26" s="2">
         <v>149</v>
@@ -2939,7 +2940,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46851892281483731</v>
+        <v>0.74763946080913313</v>
       </c>
       <c r="B27" s="2">
         <v>24</v>
@@ -2960,7 +2961,7 @@
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80385112510694368</v>
+        <v>0.16734411108786551</v>
       </c>
       <c r="B28" s="2">
         <v>128</v>
@@ -2981,7 +2982,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22655588286774542</v>
+        <v>5.4090337010829659E-2</v>
       </c>
       <c r="B29" s="2">
         <v>226</v>
@@ -3002,7 +3003,7 @@
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63223858456801585</v>
+        <v>0.514463899675628</v>
       </c>
       <c r="B30" s="2">
         <v>180</v>
@@ -3023,7 +3024,7 @@
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54938969000610094</v>
+        <v>0.81478942440969782</v>
       </c>
       <c r="B31" s="2">
         <v>272</v>
@@ -3044,7 +3045,7 @@
     <row r="32" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29786269905896523</v>
+        <v>0.25965223847794572</v>
       </c>
       <c r="B32" s="2">
         <v>257</v>
@@ -3065,7 +3066,7 @@
     <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90277156650281243</v>
+        <v>0.45335424056511653</v>
       </c>
       <c r="B33" s="2">
         <v>123</v>
@@ -3092,7 +3093,7 @@
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33715680709449292</v>
+        <v>0.34095846492444393</v>
       </c>
       <c r="B34" s="2">
         <v>108</v>
@@ -3113,7 +3114,7 @@
     <row r="35" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2164511511840854E-2</v>
+        <v>0.93129752479761219</v>
       </c>
       <c r="B35" s="2">
         <v>175</v>
@@ -3137,7 +3138,7 @@
     <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2720009902292531E-2</v>
+        <v>0.81416569036838615</v>
       </c>
       <c r="B36" s="2">
         <v>13</v>
@@ -3158,7 +3159,7 @@
     <row r="37" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86362775729286412</v>
+        <v>7.0880124683264656E-3</v>
       </c>
       <c r="B37" s="2">
         <v>391</v>
@@ -3182,7 +3183,7 @@
     <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10148517248077216</v>
+        <v>0.82854276422181794</v>
       </c>
       <c r="B38" s="2">
         <v>383</v>
@@ -3206,7 +3207,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68233333509901029</v>
+        <v>0.49022569988688525</v>
       </c>
       <c r="B39" s="2">
         <v>274</v>
@@ -3233,7 +3234,7 @@
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41679807093171861</v>
+        <v>0.76991393627031779</v>
       </c>
       <c r="B40" s="2">
         <v>390</v>
@@ -3254,7 +3255,7 @@
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0538659525293035E-2</v>
+        <v>0.32070465176650065</v>
       </c>
       <c r="B41" s="2">
         <v>126</v>
@@ -3278,7 +3279,7 @@
     <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79461955077944291</v>
+        <v>0.93745519993083881</v>
       </c>
       <c r="B42" s="2">
         <v>190</v>
@@ -3299,7 +3300,7 @@
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94104876509253665</v>
+        <v>5.3402093224025893E-2</v>
       </c>
       <c r="B43" s="2">
         <v>45</v>
@@ -3323,7 +3324,7 @@
     <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8264087418385726</v>
+        <v>0.71563426451524514</v>
       </c>
       <c r="B44" s="2">
         <v>46</v>
@@ -3344,7 +3345,7 @@
     <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.400786618536594E-2</v>
+        <v>0.88787747986273147</v>
       </c>
       <c r="B45" s="2">
         <v>50</v>
@@ -3365,7 +3366,7 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89995444427071469</v>
+        <v>5.2033227248214908E-3</v>
       </c>
       <c r="B46" s="2">
         <v>135</v>
@@ -3386,7 +3387,7 @@
     <row r="47" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28448491021961853</v>
+        <v>0.79631677685882607</v>
       </c>
       <c r="B47" s="2">
         <v>96</v>
@@ -3407,7 +3408,7 @@
     <row r="48" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32891712323479916</v>
+        <v>0.27919813557929996</v>
       </c>
       <c r="B48" s="2">
         <v>112</v>
@@ -3431,7 +3432,7 @@
     <row r="49" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36954642975781882</v>
+        <v>0.74281563408105911</v>
       </c>
       <c r="B49" s="2">
         <v>64</v>
@@ -3455,7 +3456,7 @@
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38597646008322217</v>
+        <v>2.3412722943551123E-2</v>
       </c>
       <c r="B50" s="2">
         <v>361</v>
@@ -3482,7 +3483,7 @@
     <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0695588395824895E-3</v>
+        <v>0.13060653315703563</v>
       </c>
       <c r="B51" s="2">
         <v>374</v>
@@ -3503,7 +3504,7 @@
     <row r="52" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25260562008127629</v>
+        <v>0.57128825864412325</v>
       </c>
       <c r="B52" s="2">
         <v>87</v>
@@ -3527,7 +3528,7 @@
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.117722950590611</v>
+        <v>0.71144946329117698</v>
       </c>
       <c r="B53" s="2">
         <v>426</v>
@@ -3548,7 +3549,7 @@
     <row r="54" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44387091966603798</v>
+        <v>0.8853731818433157</v>
       </c>
       <c r="B54" s="2">
         <v>422</v>
@@ -3575,7 +3576,7 @@
     <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99507304610300795</v>
+        <v>0.23946677988966458</v>
       </c>
       <c r="B55" s="2">
         <v>238</v>
@@ -3599,7 +3600,7 @@
     <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42955067884139386</v>
+        <v>0.51885113742130917</v>
       </c>
       <c r="B56" s="2">
         <v>315</v>
@@ -3629,7 +3630,7 @@
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7563400223081661</v>
+        <v>0.99135439320470964</v>
       </c>
       <c r="B57" s="2">
         <v>185</v>
@@ -3650,7 +3651,7 @@
     <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1825894775509298</v>
+        <v>0.3718451681905085</v>
       </c>
       <c r="B58" s="2">
         <v>338</v>
@@ -3671,7 +3672,7 @@
     <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50950639728527303</v>
+        <v>0.32452597617748313</v>
       </c>
       <c r="B59" s="2">
         <v>282</v>
@@ -3695,7 +3696,7 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29382821732951303</v>
+        <v>0.55668282950315806</v>
       </c>
       <c r="B60" s="2">
         <v>416</v>
@@ -3719,7 +3720,7 @@
     <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51245421198434415</v>
+        <v>0.24698321655717381</v>
       </c>
       <c r="B61" s="2">
         <v>276</v>
@@ -3746,7 +3747,7 @@
     <row r="62" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67892027989022508</v>
+        <v>0.71989252155632422</v>
       </c>
       <c r="B62" s="2">
         <v>80</v>
@@ -3767,7 +3768,7 @@
     <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66962401651442671</v>
+        <v>0.16622046340437691</v>
       </c>
       <c r="B63" s="2">
         <v>398</v>
@@ -3791,7 +3792,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8559442665097827E-2</v>
+        <v>0.65242524416873227</v>
       </c>
       <c r="B64" s="2">
         <v>215</v>
@@ -3812,7 +3813,7 @@
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5062640202375688E-3</v>
+        <v>0.94560087868093257</v>
       </c>
       <c r="B65" s="2">
         <v>166</v>
@@ -3839,7 +3840,7 @@
     <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.33279346966953349</v>
+        <v>8.1484516027615861E-2</v>
       </c>
       <c r="B66" s="2">
         <v>428</v>
@@ -3863,7 +3864,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3007951281208936</v>
+        <v>0.61863295703863819</v>
       </c>
       <c r="B67" s="2">
         <v>227</v>
@@ -3884,7 +3885,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4447709939742106</v>
+        <v>0.37371208441906856</v>
       </c>
       <c r="B68" s="2">
         <v>11</v>
@@ -3908,7 +3909,7 @@
     <row r="69" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.342038544600535E-2</v>
+        <v>0.54817535865472888</v>
       </c>
       <c r="B69" s="2">
         <v>290</v>
@@ -3935,7 +3936,7 @@
     <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74376138524382596</v>
+        <v>0.5306396782550713</v>
       </c>
       <c r="B70" s="2">
         <v>341</v>
@@ -3959,7 +3960,7 @@
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58633237567019802</v>
+        <v>0.14295120842922093</v>
       </c>
       <c r="B71" s="2">
         <v>229</v>
@@ -3986,7 +3987,7 @@
     <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58048443840047215</v>
+        <v>0.68667469783466939</v>
       </c>
       <c r="B72" s="2">
         <v>51</v>
@@ -4010,7 +4011,7 @@
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7053880673629349E-2</v>
+        <v>0.87679350322140104</v>
       </c>
       <c r="B73" s="2">
         <v>49</v>
@@ -4034,7 +4035,7 @@
     <row r="74" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72268256269397591</v>
+        <v>0.97168346658852656</v>
       </c>
       <c r="B74" s="2">
         <v>155</v>
@@ -4055,7 +4056,7 @@
     <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48761714484123453</v>
+        <v>0.19292946903960906</v>
       </c>
       <c r="B75" s="2">
         <v>278</v>
@@ -4082,7 +4083,7 @@
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7177002024875958E-2</v>
+        <v>0.17873934782424916</v>
       </c>
       <c r="B76" s="2">
         <v>265</v>
@@ -4106,7 +4107,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6699783427621173E-2</v>
+        <v>0.85732617850618165</v>
       </c>
       <c r="B77" s="2">
         <v>93</v>
@@ -4127,7 +4128,7 @@
     <row r="78" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56408634649369782</v>
+        <v>0.44255550187531001</v>
       </c>
       <c r="B78" s="2">
         <v>5</v>
@@ -4151,7 +4152,7 @@
     <row r="79" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6806274053453808</v>
+        <v>0.52247278382066431</v>
       </c>
       <c r="B79" s="2">
         <v>72</v>
@@ -4172,7 +4173,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19947362211171893</v>
+        <v>0.35380789949980029</v>
       </c>
       <c r="B80" s="2">
         <v>182</v>
@@ -4193,7 +4194,7 @@
     <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61832286317047325</v>
+        <v>0.35061349556288068</v>
       </c>
       <c r="B81" s="2">
         <v>328</v>
@@ -4217,7 +4218,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98165388681080079</v>
+        <v>3.8983645504609976E-2</v>
       </c>
       <c r="B82" s="2">
         <v>431</v>
@@ -4244,7 +4245,7 @@
     <row r="83" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5333441911680232E-3</v>
+        <v>8.6056692673446067E-2</v>
       </c>
       <c r="B83" s="2">
         <v>375</v>
@@ -4271,7 +4272,7 @@
     <row r="84" spans="1:8" ht="216" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28653087560760071</v>
+        <v>0.33180530927529417</v>
       </c>
       <c r="B84" s="2">
         <v>98</v>
@@ -4292,7 +4293,7 @@
     <row r="85" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11724228387555358</v>
+        <v>0.14790503938120669</v>
       </c>
       <c r="B85" s="2">
         <v>332</v>
@@ -4319,7 +4320,7 @@
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99190349638813735</v>
+        <v>2.2697997169326967E-2</v>
       </c>
       <c r="B86" s="2">
         <v>152</v>
@@ -4343,7 +4344,7 @@
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53753665513355631</v>
+        <v>0.39766292001807013</v>
       </c>
       <c r="B87" s="2">
         <v>394</v>
@@ -4367,7 +4368,7 @@
     <row r="88" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14664326847367015</v>
+        <v>0.88513789108393404</v>
       </c>
       <c r="B88" s="2">
         <v>284</v>
@@ -4391,7 +4392,7 @@
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5646445536677287</v>
+        <v>0.88636914044872284</v>
       </c>
       <c r="B89" s="2">
         <v>310</v>
@@ -4418,7 +4419,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8286236633062779</v>
+        <v>0.69211337000981799</v>
       </c>
       <c r="B90" s="2">
         <v>411</v>
@@ -4445,7 +4446,7 @@
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25630498847595606</v>
+        <v>0.91891755676091336</v>
       </c>
       <c r="B91" s="2">
         <v>343</v>
@@ -4466,7 +4467,7 @@
     <row r="92" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69051280208731636</v>
+        <v>0.97947676136176443</v>
       </c>
       <c r="B92" s="2">
         <v>116</v>
@@ -4490,7 +4491,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11064966379500585</v>
+        <v>0.57842991262713728</v>
       </c>
       <c r="B93" s="2">
         <v>34</v>
@@ -4511,7 +4512,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96985552014436105</v>
+        <v>0.17817566564257825</v>
       </c>
       <c r="B94" s="2">
         <v>435</v>
@@ -4538,7 +4539,7 @@
     <row r="95" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48382724811277411</v>
+        <v>0.87032698183131751</v>
       </c>
       <c r="B95" s="2">
         <v>57</v>
@@ -4559,7 +4560,7 @@
     <row r="96" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34013985300394334</v>
+        <v>0.40642160534303762</v>
       </c>
       <c r="B96" s="2">
         <v>43</v>
@@ -4583,7 +4584,7 @@
     <row r="97" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51100595540287219</v>
+        <v>0.67574871478745602</v>
       </c>
       <c r="B97" s="2">
         <v>355</v>
@@ -4610,7 +4611,7 @@
     <row r="98" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72064337815180746</v>
+        <v>0.2188581482032671</v>
       </c>
       <c r="B98" s="2">
         <v>255</v>
@@ -4637,7 +4638,7 @@
     <row r="99" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97424377900853154</v>
+        <v>8.1633578549949015E-2</v>
       </c>
       <c r="B99" s="2">
         <v>387</v>
@@ -4661,7 +4662,7 @@
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45156181950728747</v>
+        <v>0.5884336391202668</v>
       </c>
       <c r="B100" s="2">
         <v>125</v>
@@ -4685,7 +4686,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33473124603618143</v>
+        <v>0.5823812812914031</v>
       </c>
       <c r="B101" s="2">
         <v>360</v>
@@ -4706,7 +4707,7 @@
     <row r="102" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75403855785478557</v>
+        <v>0.1151396213764192</v>
       </c>
       <c r="B102" s="2">
         <v>401</v>
@@ -4730,7 +4731,7 @@
     <row r="103" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65933960760424171</v>
+        <v>0.44972888616381945</v>
       </c>
       <c r="B103" s="2">
         <v>111</v>
@@ -4754,7 +4755,7 @@
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90535594406465703</v>
+        <v>1.3185149245086736E-2</v>
       </c>
       <c r="B104" s="2">
         <v>30</v>
@@ -4775,7 +4776,7 @@
     <row r="105" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2388489313413128</v>
+        <v>0.76861477085569008</v>
       </c>
       <c r="B105" s="2">
         <v>79</v>
@@ -4799,7 +4800,7 @@
     <row r="106" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34787008989692014</v>
+        <v>0.67569969369508287</v>
       </c>
       <c r="B106" s="2">
         <v>83</v>
@@ -4820,7 +4821,7 @@
     <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44924031204204795</v>
+        <v>0.92486340250903221</v>
       </c>
       <c r="B107" s="2">
         <v>313</v>
@@ -4847,7 +4848,7 @@
     <row r="108" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31846699106200771</v>
+        <v>0.48604669759930108</v>
       </c>
       <c r="B108" s="2">
         <v>110</v>
@@ -4871,7 +4872,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54272089752877584</v>
+        <v>0.15160117843054033</v>
       </c>
       <c r="B109" s="2">
         <v>217</v>
@@ -4895,7 +4896,7 @@
     <row r="110" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8589905465277422</v>
+        <v>0.72091833199090383</v>
       </c>
       <c r="B110" s="2">
         <v>336</v>
@@ -4919,7 +4920,7 @@
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2996375555049804E-2</v>
+        <v>0.97496496379820718</v>
       </c>
       <c r="B111" s="2">
         <v>41</v>
@@ -4946,7 +4947,7 @@
     <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6602492827221218</v>
+        <v>0.23463925711982669</v>
       </c>
       <c r="B112" s="2">
         <v>20</v>
@@ -4967,7 +4968,7 @@
     <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58024824108398287</v>
+        <v>0.79924130277417038</v>
       </c>
       <c r="B113" s="2">
         <v>8</v>
@@ -4988,7 +4989,7 @@
     <row r="114" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69599292120839773</v>
+        <v>0.78023066656746265</v>
       </c>
       <c r="B114" s="2">
         <v>354</v>
@@ -5012,7 +5013,7 @@
     <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21029147867772724</v>
+        <v>4.3781620668478682E-2</v>
       </c>
       <c r="B115" s="2">
         <v>421</v>
@@ -5036,7 +5037,7 @@
     <row r="116" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0756503970673235E-2</v>
+        <v>0.21345886900778133</v>
       </c>
       <c r="B116" s="2">
         <v>214</v>
@@ -5060,7 +5061,7 @@
     <row r="117" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76460882543414166</v>
+        <v>0.46930349840131047</v>
       </c>
       <c r="B117" s="2">
         <v>436</v>
@@ -5084,7 +5085,7 @@
     <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68529319728679639</v>
+        <v>0.42152088459367398</v>
       </c>
       <c r="B118" s="2">
         <v>197</v>
@@ -5105,7 +5106,7 @@
     <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41806088781452211</v>
+        <v>7.8285667749774523E-3</v>
       </c>
       <c r="B119" s="2">
         <v>219</v>
@@ -5129,7 +5130,7 @@
     <row r="120" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1369768962124458</v>
+        <v>0.68931281047888671</v>
       </c>
       <c r="B120" s="2">
         <v>176</v>
@@ -5150,7 +5151,7 @@
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6528312892151088</v>
+        <v>0.1818497772503519</v>
       </c>
       <c r="B121" s="2">
         <v>153</v>
@@ -5171,7 +5172,7 @@
     <row r="122" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81825805935345342</v>
+        <v>0.98940226999270076</v>
       </c>
       <c r="B122" s="2">
         <v>249</v>
@@ -5198,7 +5199,7 @@
     <row r="123" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8581710951619366E-2</v>
+        <v>0.36770309528449185</v>
       </c>
       <c r="B123" s="2">
         <v>288</v>
@@ -5222,7 +5223,7 @@
     <row r="124" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8070846100378587</v>
+        <v>0.90869266070027055</v>
       </c>
       <c r="B124" s="2">
         <v>174</v>
@@ -5243,7 +5244,7 @@
     <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76894266598875216</v>
+        <v>0.16351399670591227</v>
       </c>
       <c r="B125" s="2">
         <v>109</v>
@@ -5264,7 +5265,7 @@
     <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88573172008337642</v>
+        <v>0.88065354295492249</v>
       </c>
       <c r="B126" s="2">
         <v>298</v>
@@ -5291,7 +5292,7 @@
     <row r="127" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27590449068209955</v>
+        <v>0.19906579168645466</v>
       </c>
       <c r="B127" s="2">
         <v>103</v>
@@ -5315,7 +5316,7 @@
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59142005748851256</v>
+        <v>0.69344855868895805</v>
       </c>
       <c r="B128" s="2">
         <v>148</v>
@@ -5339,7 +5340,7 @@
     <row r="129" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55429506354129177</v>
+        <v>0.69375087380865308</v>
       </c>
       <c r="B129" s="2">
         <v>259</v>
@@ -5363,7 +5364,7 @@
     <row r="130" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.16035373240775674</v>
+        <v>0.17000588380170045</v>
       </c>
       <c r="B130" s="2">
         <v>400</v>
@@ -5387,7 +5388,7 @@
     <row r="131" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59787128508760434</v>
+        <v>0.35940859844261808</v>
       </c>
       <c r="B131" s="2">
         <v>424</v>
@@ -5417,7 +5418,7 @@
     <row r="132" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3972348145967706E-2</v>
+        <v>0.62983693173405753</v>
       </c>
       <c r="B132" s="2">
         <v>75</v>
@@ -5444,7 +5445,7 @@
     <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5902564746910262E-4</v>
+        <v>0.27355500246987841</v>
       </c>
       <c r="B133" s="2">
         <v>53</v>
@@ -5468,7 +5469,7 @@
     <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92195214783326296</v>
+        <v>0.56060513724295513</v>
       </c>
       <c r="B134" s="2">
         <v>82</v>
@@ -5489,7 +5490,7 @@
     <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72094913131959626</v>
+        <v>0.20364495467021759</v>
       </c>
       <c r="B135" s="2">
         <v>165</v>
@@ -5510,7 +5511,7 @@
     <row r="136" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78664025351775313</v>
+        <v>0.20091442012758354</v>
       </c>
       <c r="B136" s="2">
         <v>117</v>
@@ -5531,7 +5532,7 @@
     <row r="137" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.052058563457936E-2</v>
+        <v>0.33307902744475204</v>
       </c>
       <c r="B137" s="2">
         <v>213</v>
@@ -5561,7 +5562,7 @@
     <row r="138" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40925016469931286</v>
+        <v>0.7591054806544667</v>
       </c>
       <c r="B138" s="2">
         <v>378</v>
@@ -5588,7 +5589,7 @@
     <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86012341901713829</v>
+        <v>0.37699858456512902</v>
       </c>
       <c r="B139" s="2">
         <v>389</v>
@@ -5615,7 +5616,7 @@
     <row r="140" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69311008703521915</v>
+        <v>0.8721981611332702</v>
       </c>
       <c r="B140" s="2">
         <v>269</v>
@@ -5639,7 +5640,7 @@
     <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15279894147371054</v>
+        <v>0.75384773579509678</v>
       </c>
       <c r="B141" s="2">
         <v>291</v>
@@ -5666,7 +5667,7 @@
     <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83608951452580105</v>
+        <v>0.79102793950546257</v>
       </c>
       <c r="B142" s="2">
         <v>28</v>
@@ -5687,7 +5688,7 @@
     <row r="143" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97184531723699019</v>
+        <v>1.9268023840711912E-2</v>
       </c>
       <c r="B143" s="2">
         <v>105</v>
@@ -5708,7 +5709,7 @@
     <row r="144" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2000631128404341</v>
+        <v>0.86240095849054743</v>
       </c>
       <c r="B144" s="2">
         <v>202</v>
@@ -5729,7 +5730,7 @@
     <row r="145" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76610217244187262</v>
+        <v>0.86484995248911167</v>
       </c>
       <c r="B145" s="2">
         <v>324</v>
@@ -5759,7 +5760,7 @@
     <row r="146" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79428823285037686</v>
+        <v>0.67960068050788836</v>
       </c>
       <c r="B146" s="2">
         <v>54</v>
@@ -5780,7 +5781,7 @@
     <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65774501101110772</v>
+        <v>0.70485686199025011</v>
       </c>
       <c r="B147" s="2">
         <v>300</v>
@@ -5807,7 +5808,7 @@
     <row r="148" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29930981557173231</v>
+        <v>0.9335655087075011</v>
       </c>
       <c r="B148" s="2">
         <v>410</v>
@@ -5831,7 +5832,7 @@
     <row r="149" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18919499284557306</v>
+        <v>0.76492820397024586</v>
       </c>
       <c r="B149" s="2">
         <v>92</v>
@@ -5855,7 +5856,7 @@
     <row r="150" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4385701159577674</v>
+        <v>0.87346915905553479</v>
       </c>
       <c r="B150" s="2">
         <v>94</v>
@@ -5879,7 +5880,7 @@
     <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43320533234658787</v>
+        <v>0.89500972553019253</v>
       </c>
       <c r="B151" s="2">
         <v>427</v>
@@ -5906,7 +5907,7 @@
     <row r="152" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46657738509546465</v>
+        <v>0.32160565344024139</v>
       </c>
       <c r="B152" s="2">
         <v>295</v>
@@ -5927,7 +5928,7 @@
     <row r="153" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80610021896959227</v>
+        <v>0.78576450122156194</v>
       </c>
       <c r="B153" s="2">
         <v>297</v>
@@ -5951,7 +5952,7 @@
     <row r="154" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4893397449246103</v>
+        <v>0.13555568891430181</v>
       </c>
       <c r="B154" s="2">
         <v>322</v>
@@ -5972,7 +5973,7 @@
     <row r="155" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60305370245202039</v>
+        <v>0.29277182790065126</v>
       </c>
       <c r="B155" s="2">
         <v>212</v>
@@ -5996,7 +5997,7 @@
     <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2824572726138469</v>
+        <v>0.85602158057450428</v>
       </c>
       <c r="B156" s="2">
         <v>187</v>
@@ -6017,7 +6018,7 @@
     <row r="157" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35222916870095822</v>
+        <v>0.63705429142291226</v>
       </c>
       <c r="B157" s="2">
         <v>90</v>
@@ -6038,7 +6039,7 @@
     <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41482517538934305</v>
+        <v>0.77765833008792473</v>
       </c>
       <c r="B158" s="2">
         <v>270</v>
@@ -6059,7 +6060,7 @@
     <row r="159" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5334459486724844</v>
+        <v>0.72051022048932967</v>
       </c>
       <c r="B159" s="2">
         <v>337</v>
@@ -6080,7 +6081,7 @@
     <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90448547052004369</v>
+        <v>0.112000688716688</v>
       </c>
       <c r="B160" s="2">
         <v>47</v>
@@ -6101,7 +6102,7 @@
     <row r="161" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7935811841446081</v>
+        <v>0.85287668934715177</v>
       </c>
       <c r="B161" s="2">
         <v>121</v>
@@ -6125,7 +6126,7 @@
     <row r="162" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81296578228972805</v>
+        <v>0.27974757965463959</v>
       </c>
       <c r="B162" s="2">
         <v>406</v>
@@ -6152,7 +6153,7 @@
     <row r="163" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2659746345743006E-2</v>
+        <v>0.4639288698852122</v>
       </c>
       <c r="B163" s="2">
         <v>434</v>
@@ -6173,7 +6174,7 @@
     <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99282593668467978</v>
+        <v>0.21378838009554824</v>
       </c>
       <c r="B164" s="2">
         <v>340</v>
@@ -6197,7 +6198,7 @@
     <row r="165" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24629345522647628</v>
+        <v>0.10624150118907238</v>
       </c>
       <c r="B165" s="2">
         <v>302</v>
@@ -6224,7 +6225,7 @@
     <row r="166" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29349801171903234</v>
+        <v>1.5624947274062162E-4</v>
       </c>
       <c r="B166" s="2">
         <v>277</v>
@@ -6251,7 +6252,7 @@
     <row r="167" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47546908863641602</v>
+        <v>0.69941388828980289</v>
       </c>
       <c r="B167" s="2">
         <v>339</v>
@@ -6272,7 +6273,7 @@
     <row r="168" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65250889258945632</v>
+        <v>0.20455854951672126</v>
       </c>
       <c r="B168" s="2">
         <v>285</v>
@@ -6296,7 +6297,7 @@
     <row r="169" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43545828809834852</v>
+        <v>0.10143581406516966</v>
       </c>
       <c r="B169" s="2">
         <v>66</v>
@@ -6320,7 +6321,7 @@
     <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24059058797105104</v>
+        <v>0.26906822412738396</v>
       </c>
       <c r="B170" s="2">
         <v>304</v>
@@ -6341,7 +6342,7 @@
     <row r="171" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59945311894958087</v>
+        <v>0.6925561835569144</v>
       </c>
       <c r="B171" s="2">
         <v>104</v>
@@ -6365,7 +6366,7 @@
     <row r="172" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94275461183684384</v>
+        <v>0.55958903794876502</v>
       </c>
       <c r="B172" s="2">
         <v>397</v>
@@ -6389,7 +6390,7 @@
     <row r="173" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79670411471986691</v>
+        <v>0.10634785708672123</v>
       </c>
       <c r="B173" s="2">
         <v>201</v>
@@ -6410,7 +6411,7 @@
     <row r="174" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89863473089573431</v>
+        <v>0.79077603820380082</v>
       </c>
       <c r="B174" s="2">
         <v>193</v>
@@ -6434,7 +6435,7 @@
     <row r="175" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0667723956858675E-2</v>
+        <v>0.75557204377660181</v>
       </c>
       <c r="B175" s="2">
         <v>85</v>
@@ -6455,7 +6456,7 @@
     <row r="176" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52918462437571923</v>
+        <v>0.69742198165235902</v>
       </c>
       <c r="B176" s="2">
         <v>157</v>
@@ -6476,7 +6477,7 @@
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5384446322577654</v>
+        <v>0.79556248128158491</v>
       </c>
       <c r="B177" s="2">
         <v>241</v>
@@ -6500,7 +6501,7 @@
     <row r="178" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31058585776582603</v>
+        <v>0.44292000957413014</v>
       </c>
       <c r="B178" s="2">
         <v>369</v>
@@ -6524,7 +6525,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15612018008013218</v>
+        <v>0.76393523373482342</v>
       </c>
       <c r="B179" s="2">
         <v>233</v>
@@ -6551,7 +6552,7 @@
     <row r="180" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33361292604162018</v>
+        <v>0.69350091145316517</v>
       </c>
       <c r="B180" s="2">
         <v>306</v>
@@ -6578,7 +6579,7 @@
     <row r="181" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35840457657039604</v>
+        <v>0.62780719152496411</v>
       </c>
       <c r="B181" s="2">
         <v>342</v>
@@ -6599,7 +6600,7 @@
     <row r="182" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83573494561763151</v>
+        <v>2.0523801533129826E-2</v>
       </c>
       <c r="B182" s="2">
         <v>381</v>
@@ -6626,7 +6627,7 @@
     <row r="183" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81547507822227094</v>
+        <v>0.7475501741434879</v>
       </c>
       <c r="B183" s="2">
         <v>279</v>
@@ -6647,7 +6648,7 @@
     <row r="184" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68122800163100727</v>
+        <v>0.42182783464967921</v>
       </c>
       <c r="B184" s="2">
         <v>145</v>
@@ -6674,7 +6675,7 @@
     <row r="185" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33708128721606623</v>
+        <v>0.94390866574975152</v>
       </c>
       <c r="B185" s="2">
         <v>2</v>
@@ -6698,7 +6699,7 @@
     <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74534152250581509</v>
+        <v>0.86513188734095225</v>
       </c>
       <c r="B186" s="2">
         <v>207</v>
@@ -6719,7 +6720,7 @@
     <row r="187" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6711682153004892E-2</v>
+        <v>0.36176624491247111</v>
       </c>
       <c r="B187" s="2">
         <v>404</v>
@@ -6743,7 +6744,7 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7403432006094879E-2</v>
+        <v>0.73099277617077363</v>
       </c>
       <c r="B188" s="2">
         <v>143</v>
@@ -6764,7 +6765,7 @@
     <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47229230118370813</v>
+        <v>0.78704929586485495</v>
       </c>
       <c r="B189" s="2">
         <v>372</v>
@@ -6788,7 +6789,7 @@
     <row r="190" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17675685221384951</v>
+        <v>0.12616959673977257</v>
       </c>
       <c r="B190" s="2">
         <v>40</v>
@@ -6809,7 +6810,7 @@
     <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57284430336275671</v>
+        <v>0.15204778163999699</v>
       </c>
       <c r="B191" s="2">
         <v>365</v>
@@ -6833,7 +6834,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42793921875024266</v>
+        <v>0.93831208029979696</v>
       </c>
       <c r="B192" s="2">
         <v>160</v>
@@ -6857,7 +6858,7 @@
     <row r="193" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28337782309355974</v>
+        <v>0.27402235536989472</v>
       </c>
       <c r="B193" s="2">
         <v>156</v>
@@ -6881,7 +6882,7 @@
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.43992177055180581</v>
+        <v>0.78126553932501697</v>
       </c>
       <c r="B194" s="2">
         <v>159</v>
@@ -6902,7 +6903,7 @@
     <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.339224226790656</v>
+        <v>0.24876806604543633</v>
       </c>
       <c r="B195" s="2">
         <v>230</v>
@@ -6929,7 +6930,7 @@
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1961400856587217E-2</v>
+        <v>0.630078921688494</v>
       </c>
       <c r="B196" s="2">
         <v>184</v>
@@ -6950,7 +6951,7 @@
     <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1919362178371342E-2</v>
+        <v>0.24664550947602293</v>
       </c>
       <c r="B197" s="2">
         <v>388</v>
@@ -6974,7 +6975,7 @@
     <row r="198" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13424148295250737</v>
+        <v>0.78969813659143118</v>
       </c>
       <c r="B198" s="2">
         <v>179</v>
@@ -6998,7 +6999,7 @@
     <row r="199" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16100244370763073</v>
+        <v>0.68681046432412129</v>
       </c>
       <c r="B199" s="2">
         <v>102</v>
@@ -7022,7 +7023,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59503676056730437</v>
+        <v>0.87346318404132295</v>
       </c>
       <c r="B200" s="2">
         <v>327</v>
@@ -7049,7 +7050,7 @@
     <row r="201" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1913150539829895E-2</v>
+        <v>7.0390639645318887E-2</v>
       </c>
       <c r="B201" s="2">
         <v>137</v>
@@ -7070,7 +7071,7 @@
     <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65516045782812016</v>
+        <v>0.74147642774775446</v>
       </c>
       <c r="B202" s="2">
         <v>16</v>
@@ -7094,7 +7095,7 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85877599192176213</v>
+        <v>0.27628136688627303</v>
       </c>
       <c r="B203" s="2">
         <v>417</v>
@@ -7115,7 +7116,7 @@
     <row r="204" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24723458045108071</v>
+        <v>0.2360748243227363</v>
       </c>
       <c r="B204" s="2">
         <v>225</v>
@@ -7136,7 +7137,7 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45297196604283307</v>
+        <v>0.1395565044678222</v>
       </c>
       <c r="B205" s="2">
         <v>419</v>
@@ -7157,7 +7158,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.863320183844889E-2</v>
+        <v>3.4383444398371821E-2</v>
       </c>
       <c r="B206" s="2">
         <v>124</v>
@@ -7181,7 +7182,7 @@
     <row r="207" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21885723699713089</v>
+        <v>0.80090438142689313</v>
       </c>
       <c r="B207" s="2">
         <v>376</v>
@@ -7205,7 +7206,7 @@
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11350147452507009</v>
+        <v>0.35122524200094973</v>
       </c>
       <c r="B208" s="2">
         <v>188</v>
@@ -7226,7 +7227,7 @@
     <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37258703913081803</v>
+        <v>0.95839507425944237</v>
       </c>
       <c r="B209" s="2">
         <v>25</v>
@@ -7247,7 +7248,7 @@
     <row r="210" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89576886202611883</v>
+        <v>0.93560827565371751</v>
       </c>
       <c r="B210" s="2">
         <v>171</v>
@@ -7268,7 +7269,7 @@
     <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1156491224671612E-2</v>
+        <v>0.85874647501607626</v>
       </c>
       <c r="B211" s="2">
         <v>31</v>
@@ -7289,7 +7290,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54484984028300021</v>
+        <v>0.81187570969522416</v>
       </c>
       <c r="B212" s="2">
         <v>258</v>
@@ -7310,7 +7311,7 @@
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13880380359177069</v>
+        <v>0.46916925211003335</v>
       </c>
       <c r="B213" s="2">
         <v>14</v>
@@ -7331,7 +7332,7 @@
     <row r="214" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2348021053758815E-2</v>
+        <v>0.71557948449859365</v>
       </c>
       <c r="B214" s="2">
         <v>267</v>
@@ -7358,7 +7359,7 @@
     <row r="215" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95354802794884408</v>
+        <v>0.39035256374152394</v>
       </c>
       <c r="B215" s="2">
         <v>173</v>
@@ -7379,7 +7380,7 @@
     <row r="216" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28404082072669723</v>
+        <v>0.76020727597498727</v>
       </c>
       <c r="B216" s="2">
         <v>142</v>
@@ -7403,7 +7404,7 @@
     <row r="217" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1526455999671104E-2</v>
+        <v>0.55028180211985545</v>
       </c>
       <c r="B217" s="2">
         <v>129</v>
@@ -7424,7 +7425,7 @@
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28225542969030204</v>
+        <v>0.30220885980070689</v>
       </c>
       <c r="B218" s="2">
         <v>235</v>
@@ -7448,7 +7449,7 @@
     <row r="219" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34667107644871564</v>
+        <v>0.76448358687918083</v>
       </c>
       <c r="B219" s="2">
         <v>69</v>
@@ -7469,7 +7470,7 @@
     <row r="220" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45742756370332727</v>
+        <v>0.57144362480407229</v>
       </c>
       <c r="B220" s="2">
         <v>403</v>
@@ -7496,7 +7497,7 @@
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3169337439587393</v>
+        <v>0.85614936433241562</v>
       </c>
       <c r="B221" s="2">
         <v>222</v>
@@ -7517,7 +7518,7 @@
     <row r="222" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71000249066458931</v>
+        <v>0.48868582826029106</v>
       </c>
       <c r="B222" s="2">
         <v>63</v>
@@ -7541,7 +7542,7 @@
     <row r="223" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99709492794864629</v>
+        <v>0.18725788045036951</v>
       </c>
       <c r="B223" s="2">
         <v>120</v>
@@ -7565,7 +7566,7 @@
     <row r="224" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34350470845927727</v>
+        <v>0.15863622856269977</v>
       </c>
       <c r="B224" s="2">
         <v>395</v>
@@ -7586,7 +7587,7 @@
     <row r="225" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45471950611662182</v>
+        <v>0.95367823298275323</v>
       </c>
       <c r="B225" s="2">
         <v>308</v>
@@ -7613,7 +7614,7 @@
     <row r="226" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.312284494353182E-2</v>
+        <v>0.17177038300856762</v>
       </c>
       <c r="B226" s="2">
         <v>244</v>
@@ -7634,7 +7635,7 @@
     <row r="227" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3138161993898629E-2</v>
+        <v>0.76259551519067836</v>
       </c>
       <c r="B227" s="2">
         <v>191</v>
@@ -7655,7 +7656,7 @@
     <row r="228" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52256487159909226</v>
+        <v>0.11329881489055216</v>
       </c>
       <c r="B228" s="2">
         <v>208</v>
@@ -7679,7 +7680,7 @@
     <row r="229" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97644476919342593</v>
+        <v>0.47868488306598644</v>
       </c>
       <c r="B229" s="2">
         <v>100</v>
@@ -7706,7 +7707,7 @@
     <row r="230" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21010602455655292</v>
+        <v>0.89775967865663142</v>
       </c>
       <c r="B230" s="2">
         <v>370</v>
@@ -7730,7 +7731,7 @@
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77786196987594558</v>
+        <v>0.9976811832461413</v>
       </c>
       <c r="B231" s="2">
         <v>224</v>
@@ -7751,7 +7752,7 @@
     <row r="232" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81833312052732377</v>
+        <v>0.58269158479190131</v>
       </c>
       <c r="B232" s="2">
         <v>168</v>
@@ -7772,7 +7773,7 @@
     <row r="233" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33103022453353081</v>
+        <v>0.47732506164028032</v>
       </c>
       <c r="B233" s="2">
         <v>314</v>
@@ -7799,7 +7800,7 @@
     <row r="234" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29616042177705471</v>
+        <v>0.95641568970215785</v>
       </c>
       <c r="B234" s="2">
         <v>60</v>
@@ -7823,7 +7824,7 @@
     <row r="235" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25897709731702168</v>
+        <v>0.51678537653378909</v>
       </c>
       <c r="B235" s="2">
         <v>287</v>
@@ -7847,7 +7848,7 @@
     <row r="236" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6243386610619801</v>
+        <v>0.53064115356201147</v>
       </c>
       <c r="B236" s="2">
         <v>118</v>
@@ -7871,7 +7872,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69784373005700673</v>
+        <v>0.28462768813210226</v>
       </c>
       <c r="B237" s="2">
         <v>183</v>
@@ -7892,7 +7893,7 @@
     <row r="238" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95804591950199702</v>
+        <v>0.4777416765671918</v>
       </c>
       <c r="B238" s="2">
         <v>196</v>
@@ -7916,7 +7917,7 @@
     <row r="239" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38932912217502924</v>
+        <v>0.68982294524098586</v>
       </c>
       <c r="B239" s="2">
         <v>36</v>
@@ -7937,7 +7938,7 @@
     <row r="240" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62633468874991127</v>
+        <v>0.77441034365862949</v>
       </c>
       <c r="B240" s="2">
         <v>44</v>
@@ -7958,7 +7959,7 @@
     <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49388590948276778</v>
+        <v>0.6050744205793599</v>
       </c>
       <c r="B241" s="2">
         <v>35</v>
@@ -7979,7 +7980,7 @@
     <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71029199508976748</v>
+        <v>0.95233024299587365</v>
       </c>
       <c r="B242" s="2">
         <v>163</v>
@@ -8003,7 +8004,7 @@
     <row r="243" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76791444841218937</v>
+        <v>1.9737097611619459E-2</v>
       </c>
       <c r="B243" s="2">
         <v>409</v>
@@ -8030,7 +8031,7 @@
     <row r="244" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39272723883905869</v>
+        <v>0.52588946578863005</v>
       </c>
       <c r="B244" s="2">
         <v>256</v>
@@ -8054,7 +8055,7 @@
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76247774556843617</v>
+        <v>0.3077564121477645</v>
       </c>
       <c r="B245" s="2">
         <v>346</v>
@@ -8078,7 +8079,7 @@
     <row r="246" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64023006088095147</v>
+        <v>0.72244737017453931</v>
       </c>
       <c r="B246" s="2">
         <v>74</v>
@@ -8102,7 +8103,7 @@
     <row r="247" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87067168540816309</v>
+        <v>0.36553924751638356</v>
       </c>
       <c r="B247" s="2">
         <v>52</v>
@@ -8123,7 +8124,7 @@
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58281703299033627</v>
+        <v>0.19283409763156834</v>
       </c>
       <c r="B248" s="2">
         <v>32</v>
@@ -8147,7 +8148,7 @@
     <row r="249" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26628549855520867</v>
+        <v>0.60310274247210316</v>
       </c>
       <c r="B249" s="2">
         <v>382</v>
@@ -8174,7 +8175,7 @@
     <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15235283964195168</v>
+        <v>0.37010729737358461</v>
       </c>
       <c r="B250" s="2">
         <v>293</v>
@@ -8195,7 +8196,7 @@
     <row r="251" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34558524784614553</v>
+        <v>0.98837540567045035</v>
       </c>
       <c r="B251" s="2">
         <v>275</v>
@@ -8219,7 +8220,7 @@
     <row r="252" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91939413715658769</v>
+        <v>0.79903789327150065</v>
       </c>
       <c r="B252" s="2">
         <v>132</v>
@@ -8240,7 +8241,7 @@
     <row r="253" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12189300613328713</v>
+        <v>0.46945106791230851</v>
       </c>
       <c r="B253" s="2">
         <v>130</v>
@@ -8264,7 +8265,7 @@
     <row r="254" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26921322640115997</v>
+        <v>0.77111183265881744</v>
       </c>
       <c r="B254" s="2">
         <v>371</v>
@@ -8288,7 +8289,7 @@
     <row r="255" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6886744604167854E-2</v>
+        <v>0.49481519097812876</v>
       </c>
       <c r="B255" s="2">
         <v>280</v>
@@ -8315,7 +8316,7 @@
     <row r="256" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53493727558900916</v>
+        <v>0.52947618550846476</v>
       </c>
       <c r="B256" s="2">
         <v>204</v>
@@ -8339,7 +8340,7 @@
     <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12231977102321678</v>
+        <v>0.25676641910876696</v>
       </c>
       <c r="B257" s="2">
         <v>99</v>
@@ -8363,7 +8364,7 @@
     <row r="258" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A321" ca="1" si="4">RAND()</f>
-        <v>8.0941178381782164E-2</v>
+        <v>8.4686899006037653E-2</v>
       </c>
       <c r="B258" s="2">
         <v>195</v>
@@ -8384,7 +8385,7 @@
     <row r="259" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52977435065380585</v>
+        <v>0.79608310133191762</v>
       </c>
       <c r="B259" s="2">
         <v>101</v>
@@ -8408,7 +8409,7 @@
     <row r="260" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49567651297803983</v>
+        <v>3.0862206804639691E-2</v>
       </c>
       <c r="B260" s="2">
         <v>114</v>
@@ -8429,7 +8430,7 @@
     <row r="261" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78531249912626888</v>
+        <v>0.12794552918787139</v>
       </c>
       <c r="B261" s="2">
         <v>329</v>
@@ -8456,7 +8457,7 @@
     <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8748571177466808E-2</v>
+        <v>0.67639643045782882</v>
       </c>
       <c r="B262" s="2">
         <v>334</v>
@@ -8480,7 +8481,7 @@
     <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73888047307609905</v>
+        <v>0.86675775435645408</v>
       </c>
       <c r="B263" s="2">
         <v>425</v>
@@ -8507,7 +8508,7 @@
     <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26196129532230394</v>
+        <v>1.0017136702982543E-2</v>
       </c>
       <c r="B264" s="2">
         <v>432</v>
@@ -8531,7 +8532,7 @@
     <row r="265" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99035976054333219</v>
+        <v>0.14334734811270977</v>
       </c>
       <c r="B265" s="2">
         <v>38</v>
@@ -8552,7 +8553,7 @@
     <row r="266" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83710626267806065</v>
+        <v>0.27120038292784221</v>
       </c>
       <c r="B266" s="2">
         <v>405</v>
@@ -8576,7 +8577,7 @@
     <row r="267" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42060512449713505</v>
+        <v>0.37458474174618173</v>
       </c>
       <c r="B267" s="2">
         <v>55</v>
@@ -8597,7 +8598,7 @@
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56819539975284539</v>
+        <v>0.51280726356571504</v>
       </c>
       <c r="B268" s="2">
         <v>81</v>
@@ -8618,7 +8619,7 @@
     <row r="269" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78023243935027187</v>
+        <v>0.49764881762973068</v>
       </c>
       <c r="B269" s="2">
         <v>301</v>
@@ -8639,7 +8640,7 @@
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5887545714309026</v>
+        <v>0.46508072444272042</v>
       </c>
       <c r="B270" s="2">
         <v>305</v>
@@ -8663,7 +8664,7 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76768280690421786</v>
+        <v>0.61689270453785483</v>
       </c>
       <c r="B271" s="2">
         <v>414</v>
@@ -8687,7 +8688,7 @@
     <row r="272" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84993126114639284</v>
+        <v>0.89632028348455162</v>
       </c>
       <c r="B272" s="2">
         <v>251</v>
@@ -8711,7 +8712,7 @@
     <row r="273" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77360721297590096</v>
+        <v>0.36315733906435554</v>
       </c>
       <c r="B273" s="2">
         <v>113</v>
@@ -8732,7 +8733,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89588553603077115</v>
+        <v>0.99707441452885492</v>
       </c>
       <c r="B274" s="2">
         <v>106</v>
@@ -8753,7 +8754,7 @@
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77244904478436771</v>
+        <v>0.62742964201257923</v>
       </c>
       <c r="B275" s="2">
         <v>234</v>
@@ -8777,7 +8778,7 @@
     <row r="276" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35382010605291725</v>
+        <v>0.35657597454713674</v>
       </c>
       <c r="B276" s="2">
         <v>221</v>
@@ -8801,7 +8802,7 @@
     <row r="277" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8939239352636984</v>
+        <v>0.60252103811552282</v>
       </c>
       <c r="B277" s="2">
         <v>220</v>
@@ -8825,7 +8826,7 @@
     <row r="278" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4171172024240889</v>
+        <v>0.58475294330589289</v>
       </c>
       <c r="B278" s="2">
         <v>330</v>
@@ -8852,7 +8853,7 @@
     <row r="279" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3514520428675523E-2</v>
+        <v>0.64521900023235856</v>
       </c>
       <c r="B279" s="2">
         <v>239</v>
@@ -8873,7 +8874,7 @@
     <row r="280" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4563726826371579E-2</v>
+        <v>0.12143237434867205</v>
       </c>
       <c r="B280" s="2">
         <v>177</v>
@@ -8894,7 +8895,7 @@
     <row r="281" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24396859944715732</v>
+        <v>0.87782161638376976</v>
       </c>
       <c r="B281" s="2">
         <v>150</v>
@@ -8915,7 +8916,7 @@
     <row r="282" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66149833279276615</v>
+        <v>0.4869213825040013</v>
       </c>
       <c r="B282" s="2">
         <v>88</v>
@@ -8936,7 +8937,7 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8048873076950938E-2</v>
+        <v>0.1956645424201291</v>
       </c>
       <c r="B283" s="2">
         <v>415</v>
@@ -8957,7 +8958,7 @@
     <row r="284" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3134851137610889</v>
+        <v>5.3359439278061194E-2</v>
       </c>
       <c r="B284" s="2">
         <v>333</v>
@@ -8984,7 +8985,7 @@
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87041291647248964</v>
+        <v>0.55376237231952097</v>
       </c>
       <c r="B285" s="2">
         <v>359</v>
@@ -9005,7 +9006,7 @@
     <row r="286" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95070025613309761</v>
+        <v>0.34738663302209138</v>
       </c>
       <c r="B286" s="2">
         <v>283</v>
@@ -9026,7 +9027,7 @@
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60346071813064706</v>
+        <v>9.4941347823268463E-2</v>
       </c>
       <c r="B287" s="2">
         <v>412</v>
@@ -9050,7 +9051,7 @@
     <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37033875398566529</v>
+        <v>0.31401887638228831</v>
       </c>
       <c r="B288" s="2">
         <v>127</v>
@@ -9071,7 +9072,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72517768205530553</v>
+        <v>0.33132216392104008</v>
       </c>
       <c r="B289" s="2">
         <v>364</v>
@@ -9095,7 +9096,7 @@
     <row r="290" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14829285006301229</v>
+        <v>0.62492283980976993</v>
       </c>
       <c r="B290" s="2">
         <v>189</v>
@@ -9119,7 +9120,7 @@
     <row r="291" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.615748113325012</v>
+        <v>0.67359368487216753</v>
       </c>
       <c r="B291" s="2">
         <v>59</v>
@@ -9143,7 +9144,7 @@
     <row r="292" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82531795978840616</v>
+        <v>0.51060110990611074</v>
       </c>
       <c r="B292" s="2">
         <v>194</v>
@@ -9164,7 +9165,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30804348287508465</v>
+        <v>0.82185343621749796</v>
       </c>
       <c r="B293" s="2">
         <v>186</v>
@@ -9185,7 +9186,7 @@
     <row r="294" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50513544563093027</v>
+        <v>0.38476993608795929</v>
       </c>
       <c r="B294" s="2">
         <v>139</v>
@@ -9206,7 +9207,7 @@
     <row r="295" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46712925044045128</v>
+        <v>3.6851051045697969E-2</v>
       </c>
       <c r="B295" s="2">
         <v>140</v>
@@ -9233,7 +9234,7 @@
     <row r="296" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89917501185814241</v>
+        <v>0.52600175604151067</v>
       </c>
       <c r="B296" s="2">
         <v>131</v>
@@ -9257,7 +9258,7 @@
     <row r="297" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7438721933192417</v>
+        <v>6.5355332466194627E-2</v>
       </c>
       <c r="B297" s="2">
         <v>286</v>
@@ -9284,7 +9285,7 @@
     <row r="298" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21119383801540015</v>
+        <v>0.37433568033764675</v>
       </c>
       <c r="B298" s="2">
         <v>268</v>
@@ -9308,7 +9309,7 @@
     <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68085395765553491</v>
+        <v>0.57480994557614129</v>
       </c>
       <c r="B299" s="2">
         <v>348</v>
@@ -9332,7 +9333,7 @@
     <row r="300" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71568680472580104</v>
+        <v>0.8234177500809251</v>
       </c>
       <c r="B300" s="2">
         <v>252</v>
@@ -9356,7 +9357,7 @@
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70849970090963788</v>
+        <v>0.43701946404017555</v>
       </c>
       <c r="B301" s="2">
         <v>15</v>
@@ -9377,7 +9378,7 @@
     <row r="302" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84270990797380307</v>
+        <v>0.25706561918088211</v>
       </c>
       <c r="B302" s="2">
         <v>232</v>
@@ -9401,7 +9402,7 @@
     <row r="303" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94649955322796819</v>
+        <v>0.84944192176242006</v>
       </c>
       <c r="B303" s="2">
         <v>243</v>
@@ -9422,7 +9423,7 @@
     <row r="304" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51340935242992569</v>
+        <v>0.63239084993516326</v>
       </c>
       <c r="B304" s="2">
         <v>263</v>
@@ -9446,7 +9447,7 @@
     <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6519354469761991</v>
+        <v>0.50074381015565839</v>
       </c>
       <c r="B305" s="2">
         <v>237</v>
@@ -9473,7 +9474,7 @@
     <row r="306" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39531709910806112</v>
+        <v>0.29685900091971551</v>
       </c>
       <c r="B306" s="2">
         <v>318</v>
@@ -9497,7 +9498,7 @@
     <row r="307" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74250133270283825</v>
+        <v>0.31196449578156638</v>
       </c>
       <c r="B307" s="2">
         <v>402</v>
@@ -9521,7 +9522,7 @@
     <row r="308" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13837152206799486</v>
+        <v>0.72606639443432608</v>
       </c>
       <c r="B308" s="2">
         <v>323</v>
@@ -9545,7 +9546,7 @@
     <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.6717357514782369E-2</v>
+        <v>0.35369278051421171</v>
       </c>
       <c r="B309" s="2">
         <v>29</v>
@@ -9566,7 +9567,7 @@
     <row r="310" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90328625824161701</v>
+        <v>3.5263293565308329E-2</v>
       </c>
       <c r="B310" s="2">
         <v>48</v>
@@ -9587,7 +9588,7 @@
     <row r="311" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41824520657746111</v>
+        <v>0.96727219678368404</v>
       </c>
       <c r="B311" s="2">
         <v>266</v>
@@ -9611,7 +9612,7 @@
     <row r="312" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83278669395180527</v>
+        <v>7.8292017749132636E-2</v>
       </c>
       <c r="B312" s="2">
         <v>352</v>
@@ -9635,7 +9636,7 @@
     <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78250759364314926</v>
+        <v>0.99578022855694781</v>
       </c>
       <c r="B313" s="2">
         <v>133</v>
@@ -9659,7 +9660,7 @@
     <row r="314" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80766153841903277</v>
+        <v>0.33694180973581589</v>
       </c>
       <c r="B314" s="2">
         <v>420</v>
@@ -9683,7 +9684,7 @@
     <row r="315" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94977472124386275</v>
+        <v>4.8232492253320602E-2</v>
       </c>
       <c r="B315" s="2">
         <v>440</v>
@@ -9710,7 +9711,7 @@
     <row r="316" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27406224472103324</v>
+        <v>0.6543347009324002</v>
       </c>
       <c r="B316" s="2">
         <v>198</v>
@@ -9731,7 +9732,7 @@
     <row r="317" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.202874121915376E-2</v>
+        <v>0.6548227715741135</v>
       </c>
       <c r="B317" s="2">
         <v>386</v>
@@ -9752,7 +9753,7 @@
     <row r="318" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6101002061350567E-3</v>
+        <v>0.49363989727017632</v>
       </c>
       <c r="B318" s="2">
         <v>250</v>
@@ -9779,7 +9780,7 @@
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34502759821397944</v>
+        <v>0.53579959832079871</v>
       </c>
       <c r="B319" s="2">
         <v>429</v>
@@ -9806,7 +9807,7 @@
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4620811991049436E-2</v>
+        <v>0.95204588586921091</v>
       </c>
       <c r="B320" s="2">
         <v>240</v>
@@ -9830,7 +9831,7 @@
     <row r="321" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44295813110460835</v>
+        <v>0.51902151141317243</v>
       </c>
       <c r="B321" s="2">
         <v>311</v>
@@ -9854,7 +9855,7 @@
     <row r="322" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <f t="shared" ref="A322:A385" ca="1" si="5">RAND()</f>
-        <v>0.99163152282673839</v>
+        <v>0.98121959846668039</v>
       </c>
       <c r="B322" s="2">
         <v>62</v>
@@ -9878,7 +9879,7 @@
     <row r="323" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32415985502734557</v>
+        <v>0.78678987089129448</v>
       </c>
       <c r="B323" s="2">
         <v>6</v>
@@ -9902,7 +9903,7 @@
     <row r="324" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20135460249396897</v>
+        <v>0.82511454860606293</v>
       </c>
       <c r="B324" s="2">
         <v>86</v>
@@ -9923,7 +9924,7 @@
     <row r="325" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25861917786492539</v>
+        <v>0.43756704688971382</v>
       </c>
       <c r="B325" s="2">
         <v>247</v>
@@ -9950,7 +9951,7 @@
     <row r="326" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10858055009501</v>
+        <v>0.20721317082700907</v>
       </c>
       <c r="B326" s="2">
         <v>261</v>
@@ -9971,7 +9972,7 @@
     <row r="327" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14897028394619516</v>
+        <v>0.70234404156134245</v>
       </c>
       <c r="B327" s="2">
         <v>164</v>
@@ -9995,7 +9996,7 @@
     <row r="328" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57367132986199909</v>
+        <v>0.88956312374768554</v>
       </c>
       <c r="B328" s="2">
         <v>437</v>
@@ -10016,7 +10017,7 @@
     <row r="329" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48087363628279833</v>
+        <v>0.38276221887578643</v>
       </c>
       <c r="B329" s="2">
         <v>262</v>
@@ -10040,7 +10041,7 @@
     <row r="330" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57498924706330146</v>
+        <v>8.8295269196328574E-2</v>
       </c>
       <c r="B330" s="2">
         <v>199</v>
@@ -10061,7 +10062,7 @@
     <row r="331" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50291299153679758</v>
+        <v>8.5015889589721394E-2</v>
       </c>
       <c r="B331" s="2">
         <v>211</v>
@@ -10088,7 +10089,7 @@
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5867615587332451E-2</v>
+        <v>0.74411629362295273</v>
       </c>
       <c r="B332" s="2">
         <v>216</v>
@@ -10109,7 +10110,7 @@
     <row r="333" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43401332029843587</v>
+        <v>0.70950588260006198</v>
       </c>
       <c r="B333" s="2">
         <v>326</v>
@@ -10139,7 +10140,7 @@
     <row r="334" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72471165317172759</v>
+        <v>0.39212631451605351</v>
       </c>
       <c r="B334" s="2">
         <v>12</v>
@@ -10160,7 +10161,7 @@
     <row r="335" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32118363114125359</v>
+        <v>0.4024500761048857</v>
       </c>
       <c r="B335" s="2">
         <v>17</v>
@@ -10181,7 +10182,7 @@
     <row r="336" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32230082871354382</v>
+        <v>0.76930594983507383</v>
       </c>
       <c r="B336" s="2">
         <v>162</v>
@@ -10205,7 +10206,7 @@
     <row r="337" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29072884209864536</v>
+        <v>5.1578299584416287E-2</v>
       </c>
       <c r="B337" s="2">
         <v>65</v>
@@ -10229,7 +10230,7 @@
     <row r="338" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24258295716524059</v>
+        <v>0.62392878594479961</v>
       </c>
       <c r="B338" s="2">
         <v>299</v>
@@ -10253,7 +10254,7 @@
     <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23087468112191545</v>
+        <v>0.63291828884647039</v>
       </c>
       <c r="B339" s="2">
         <v>26</v>
@@ -10274,7 +10275,7 @@
     <row r="340" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79384607370043969</v>
+        <v>0.47292592489925389</v>
       </c>
       <c r="B340" s="2">
         <v>296</v>
@@ -10301,7 +10302,7 @@
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51231496266813525</v>
+        <v>0.95071687968453378</v>
       </c>
       <c r="B341" s="2">
         <v>22</v>
@@ -10322,7 +10323,7 @@
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37594884987040778</v>
+        <v>9.6401460098831881E-2</v>
       </c>
       <c r="B342" s="2">
         <v>312</v>
@@ -10349,7 +10350,7 @@
     <row r="343" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84110022822075381</v>
+        <v>0.72813804426450279</v>
       </c>
       <c r="B343" s="2">
         <v>10</v>
@@ -10373,7 +10374,7 @@
     <row r="344" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9971626227065569E-3</v>
+        <v>0.75079712293903023</v>
       </c>
       <c r="B344" s="2">
         <v>119</v>
@@ -10397,7 +10398,7 @@
     <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76953626941245268</v>
+        <v>0.26254675674723627</v>
       </c>
       <c r="B345" s="2">
         <v>441</v>
@@ -10421,7 +10422,7 @@
     <row r="346" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29386322622976235</v>
+        <v>0.49286788401563175</v>
       </c>
       <c r="B346" s="2">
         <v>70</v>
@@ -10445,7 +10446,7 @@
     <row r="347" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49876875921885999</v>
+        <v>0.98025076627166452</v>
       </c>
       <c r="B347" s="2">
         <v>363</v>
@@ -10466,7 +10467,7 @@
     <row r="348" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20560196035309619</v>
+        <v>0.46215281852517087</v>
       </c>
       <c r="B348" s="2">
         <v>151</v>
@@ -10490,7 +10491,7 @@
     <row r="349" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90192124937693896</v>
+        <v>0.20714163244770656</v>
       </c>
       <c r="B349" s="2">
         <v>210</v>
@@ -10517,7 +10518,7 @@
     <row r="350" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7818827779618887E-2</v>
+        <v>0.36498708513444833</v>
       </c>
       <c r="B350" s="2">
         <v>33</v>
@@ -10538,7 +10539,7 @@
     <row r="351" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31159316916680424</v>
+        <v>0.686599661932774</v>
       </c>
       <c r="B351" s="2">
         <v>380</v>
@@ -10562,7 +10563,7 @@
     <row r="352" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31474829088164125</v>
+        <v>0.16874110291832334</v>
       </c>
       <c r="B352" s="2">
         <v>289</v>
@@ -10586,7 +10587,7 @@
     <row r="353" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2873749805760797E-2</v>
+        <v>0.91396926317708393</v>
       </c>
       <c r="B353" s="2">
         <v>385</v>
@@ -10610,7 +10611,7 @@
     <row r="354" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67904172667264329</v>
+        <v>0.67064858980004771</v>
       </c>
       <c r="B354" s="2">
         <v>169</v>
@@ -10631,7 +10632,7 @@
     <row r="355" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15787798251149354</v>
+        <v>0.30884409747186514</v>
       </c>
       <c r="B355" s="2">
         <v>228</v>
@@ -10655,7 +10656,7 @@
     <row r="356" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49305158432603335</v>
+        <v>0.38016951011880806</v>
       </c>
       <c r="B356" s="2">
         <v>76</v>
@@ -10676,7 +10677,7 @@
     <row r="357" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48218948876192802</v>
+        <v>0.7863877244312556</v>
       </c>
       <c r="B357" s="2">
         <v>4</v>
@@ -10700,7 +10701,7 @@
     <row r="358" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90593899871718853</v>
+        <v>0.84869890322606478</v>
       </c>
       <c r="B358" s="2">
         <v>349</v>
@@ -10724,7 +10725,7 @@
     <row r="359" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33443145025674403</v>
+        <v>4.8408365584946544E-2</v>
       </c>
       <c r="B359" s="2">
         <v>350</v>
@@ -10748,7 +10749,7 @@
     <row r="360" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11824868049110915</v>
+        <v>7.7069561157009248E-2</v>
       </c>
       <c r="B360" s="2">
         <v>344</v>
@@ -10772,7 +10773,7 @@
     <row r="361" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14165493995569667</v>
+        <v>0.92311180454112129</v>
       </c>
       <c r="B361" s="2">
         <v>281</v>
@@ -10799,7 +10800,7 @@
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89742279363508226</v>
+        <v>0.93492421884164079</v>
       </c>
       <c r="B362" s="2">
         <v>273</v>
@@ -10823,7 +10824,7 @@
     <row r="363" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93478909486402406</v>
+        <v>0.84146424332238212</v>
       </c>
       <c r="B363" s="2">
         <v>246</v>
@@ -10847,7 +10848,7 @@
     <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13410795862132585</v>
+        <v>0.1165044307972205</v>
       </c>
       <c r="B364" s="2">
         <v>294</v>
@@ -10874,7 +10875,7 @@
     <row r="365" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5872921619891005</v>
+        <v>0.43003306764488747</v>
       </c>
       <c r="B365" s="2">
         <v>357</v>
@@ -10898,7 +10899,7 @@
     <row r="366" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.767442974531567E-2</v>
+        <v>0.86496330933117704</v>
       </c>
       <c r="B366" s="2">
         <v>167</v>
@@ -10922,7 +10923,7 @@
     <row r="367" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93477851301706516</v>
+        <v>0.28829552010210879</v>
       </c>
       <c r="B367" s="2">
         <v>209</v>
@@ -10946,7 +10947,7 @@
     <row r="368" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0711108359486916E-2</v>
+        <v>0.94896819949885991</v>
       </c>
       <c r="B368" s="2">
         <v>319</v>
@@ -10976,7 +10977,7 @@
     <row r="369" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7691701975741951E-2</v>
+        <v>0.37351431560115944</v>
       </c>
       <c r="B369" s="2">
         <v>18</v>
@@ -10997,7 +10998,7 @@
     <row r="370" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76896625190776347</v>
+        <v>0.56807398961184064</v>
       </c>
       <c r="B370" s="2">
         <v>122</v>
@@ -11021,7 +11022,7 @@
     <row r="371" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45400295926725032</v>
+        <v>2.3613885989420269E-2</v>
       </c>
       <c r="B371" s="2">
         <v>3</v>
@@ -11045,7 +11046,7 @@
     <row r="372" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85098467656539689</v>
+        <v>0.38985518221084481</v>
       </c>
       <c r="B372" s="2">
         <v>358</v>
@@ -11066,7 +11067,7 @@
     <row r="373" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82932875660657568</v>
+        <v>0.52129937534652693</v>
       </c>
       <c r="B373" s="2">
         <v>144</v>
@@ -11090,7 +11091,7 @@
     <row r="374" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19413886724811502</v>
+        <v>0.62693741339682507</v>
       </c>
       <c r="B374" s="2">
         <v>73</v>
@@ -11114,7 +11115,7 @@
     <row r="375" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74270692041130859</v>
+        <v>0.35377029858222664</v>
       </c>
       <c r="B375" s="2">
         <v>19</v>
@@ -11135,7 +11136,7 @@
     <row r="376" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82019045303117377</v>
+        <v>0.65209411031930131</v>
       </c>
       <c r="B376" s="2">
         <v>377</v>
@@ -11159,7 +11160,7 @@
     <row r="377" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38616710046370173</v>
+        <v>0.3379608543425302</v>
       </c>
       <c r="B377" s="2">
         <v>264</v>
@@ -11180,7 +11181,7 @@
     <row r="378" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3373352539299852</v>
+        <v>0.9798853923917008</v>
       </c>
       <c r="B378" s="2">
         <v>147</v>
@@ -11201,7 +11202,7 @@
     <row r="379" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38343044531362402</v>
+        <v>0.43268553384370068</v>
       </c>
       <c r="B379" s="2">
         <v>7</v>
@@ -11228,7 +11229,7 @@
     <row r="380" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94495508905607817</v>
+        <v>0.45318394605051482</v>
       </c>
       <c r="B380" s="2">
         <v>89</v>
@@ -11252,7 +11253,7 @@
     <row r="381" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96026731729779391</v>
+        <v>0.87037280946897344</v>
       </c>
       <c r="B381" s="2">
         <v>203</v>
@@ -11273,7 +11274,7 @@
     <row r="382" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50348695498748208</v>
+        <v>0.51113116297965833</v>
       </c>
       <c r="B382" s="2">
         <v>56</v>
@@ -11294,7 +11295,7 @@
     <row r="383" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15299630202268566</v>
+        <v>0.37236499987188498</v>
       </c>
       <c r="B383" s="2">
         <v>407</v>
@@ -11321,7 +11322,7 @@
     <row r="384" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667532279328686</v>
+        <v>0.12788054442512997</v>
       </c>
       <c r="B384" s="2">
         <v>316</v>
@@ -11351,7 +11352,7 @@
     <row r="385" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19198548690115924</v>
+        <v>0.51836762062202457</v>
       </c>
       <c r="B385" s="2">
         <v>366</v>
@@ -11378,7 +11379,7 @@
     <row r="386" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <f t="shared" ref="A386:A442" ca="1" si="6">RAND()</f>
-        <v>6.9843252067788852E-2</v>
+        <v>0.52220249306198663</v>
       </c>
       <c r="B386" s="2">
         <v>309</v>
@@ -11402,7 +11403,7 @@
     <row r="387" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38620265496963047</v>
+        <v>0.29086837976453717</v>
       </c>
       <c r="B387" s="2">
         <v>384</v>
@@ -11429,7 +11430,7 @@
     <row r="388" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32368082292798461</v>
+        <v>5.2272882571999579E-2</v>
       </c>
       <c r="B388" s="2">
         <v>61</v>
@@ -11453,7 +11454,7 @@
     <row r="389" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23790345594762097</v>
+        <v>0.2374527299086322</v>
       </c>
       <c r="B389" s="2">
         <v>325</v>
@@ -11474,7 +11475,7 @@
     <row r="390" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85684245627084699</v>
+        <v>0.96815726529009272</v>
       </c>
       <c r="B390" s="2">
         <v>91</v>
@@ -11501,7 +11502,7 @@
     <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47965885659079599</v>
+        <v>0.17950394303159012</v>
       </c>
       <c r="B391" s="2">
         <v>223</v>
@@ -11525,7 +11526,7 @@
     <row r="392" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77782598033483707</v>
+        <v>0.30383566902265691</v>
       </c>
       <c r="B392" s="2">
         <v>356</v>
@@ -11552,7 +11553,7 @@
     <row r="393" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75474617948626721</v>
+        <v>0.83880484471618555</v>
       </c>
       <c r="B393" s="2">
         <v>170</v>
@@ -11573,7 +11574,7 @@
     <row r="394" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27649232367557997</v>
+        <v>0.96204707996343897</v>
       </c>
       <c r="B394" s="2">
         <v>154</v>
@@ -11594,7 +11595,7 @@
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91898257209286749</v>
+        <v>0.33966151829921321</v>
       </c>
       <c r="B395" s="2">
         <v>418</v>
@@ -11618,7 +11619,7 @@
     <row r="396" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9232537801900929E-3</v>
+        <v>0.80533261036609782</v>
       </c>
       <c r="B396" s="2">
         <v>335</v>
@@ -11639,7 +11640,7 @@
     <row r="397" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62349713631937986</v>
+        <v>0.66467485369103152</v>
       </c>
       <c r="B397" s="2">
         <v>393</v>
@@ -11663,7 +11664,7 @@
     <row r="398" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25728280754000821</v>
+        <v>0.11412236855370328</v>
       </c>
       <c r="B398" s="2">
         <v>254</v>
@@ -11690,7 +11691,7 @@
     <row r="399" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97844421669611825</v>
+        <v>0.55709936891819478</v>
       </c>
       <c r="B399" s="2">
         <v>77</v>
@@ -11714,7 +11715,7 @@
     <row r="400" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42679410558285491</v>
+        <v>0.2631593944520787</v>
       </c>
       <c r="B400" s="2">
         <v>320</v>
@@ -11741,7 +11742,7 @@
     <row r="401" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81539459635548339</v>
+        <v>0.66458852962724813</v>
       </c>
       <c r="B401" s="2">
         <v>396</v>
@@ -11768,7 +11769,7 @@
     <row r="402" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85283059750582058</v>
+        <v>0.54139982867048442</v>
       </c>
       <c r="B402" s="2">
         <v>392</v>
@@ -11792,7 +11793,7 @@
     <row r="403" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27414720395809766</v>
+        <v>0.59877475158437066</v>
       </c>
       <c r="B403" s="2">
         <v>423</v>
@@ -11822,7 +11823,7 @@
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25991138110804235</v>
+        <v>6.012508989984211E-2</v>
       </c>
       <c r="B404" s="2">
         <v>21</v>
@@ -11843,7 +11844,7 @@
     <row r="405" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11034352064841657</v>
+        <v>0.6235390478870515</v>
       </c>
       <c r="B405" s="2">
         <v>331</v>
@@ -11867,7 +11868,7 @@
     <row r="406" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75357735147300375</v>
+        <v>0.47701550835205331</v>
       </c>
       <c r="B406" s="2">
         <v>430</v>
@@ -11891,7 +11892,7 @@
     <row r="407" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81895705523295859</v>
+        <v>5.2877726938606817E-2</v>
       </c>
       <c r="B407" s="2">
         <v>68</v>
@@ -11912,7 +11913,7 @@
     <row r="408" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4380756062880069</v>
+        <v>0.4472869754305191</v>
       </c>
       <c r="B408" s="2">
         <v>351</v>
@@ -11936,7 +11937,7 @@
     <row r="409" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26934914837630208</v>
+        <v>2.8392486560980479E-2</v>
       </c>
       <c r="B409" s="2">
         <v>9</v>
@@ -11960,7 +11961,7 @@
     <row r="410" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78197750388047538</v>
+        <v>0.57934403468544193</v>
       </c>
       <c r="B410" s="2">
         <v>205</v>
@@ -11984,7 +11985,7 @@
     <row r="411" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11079268473420867</v>
+        <v>0.47699811827467753</v>
       </c>
       <c r="B411" s="2">
         <v>218</v>
@@ -12005,7 +12006,7 @@
     <row r="412" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35270575835931606</v>
+        <v>0.72274920300823942</v>
       </c>
       <c r="B412" s="2">
         <v>231</v>
@@ -12029,7 +12030,7 @@
     <row r="413" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7035779773755062</v>
+        <v>0.60467844494373257</v>
       </c>
       <c r="B413" s="2">
         <v>433</v>
@@ -12056,7 +12057,7 @@
     <row r="414" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74376052773103241</v>
+        <v>0.19506422247865574</v>
       </c>
       <c r="B414" s="2">
         <v>408</v>
@@ -12083,7 +12084,7 @@
     <row r="415" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1242127810835627E-2</v>
+        <v>1.0730016739790127E-2</v>
       </c>
       <c r="B415" s="2">
         <v>236</v>
@@ -12107,7 +12108,7 @@
     <row r="416" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92400593717518376</v>
+        <v>0.22913975900437489</v>
       </c>
       <c r="B416" s="2">
         <v>58</v>
@@ -12131,7 +12132,7 @@
     <row r="417" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35056106267893727</v>
+        <v>0.58152163704601267</v>
       </c>
       <c r="B417" s="2">
         <v>303</v>
@@ -12158,7 +12159,7 @@
     <row r="418" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44363771534959751</v>
+        <v>0.16613250621246678</v>
       </c>
       <c r="B418" s="2">
         <v>138</v>
@@ -12179,7 +12180,7 @@
     <row r="419" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13316364671503789</v>
+        <v>0.35073882455081995</v>
       </c>
       <c r="B419" s="2">
         <v>245</v>
@@ -12200,7 +12201,7 @@
     <row r="420" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75471834622798173</v>
+        <v>0.86644917769666241</v>
       </c>
       <c r="B420" s="2">
         <v>107</v>
@@ -12224,7 +12225,7 @@
     <row r="421" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50842651656183324</v>
+        <v>0.53640226689266823</v>
       </c>
       <c r="B421" s="2">
         <v>368</v>
@@ -12248,7 +12249,7 @@
     <row r="422" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53575464681272944</v>
+        <v>0.36317054694298445</v>
       </c>
       <c r="B422" s="2">
         <v>141</v>
@@ -12275,7 +12276,7 @@
     <row r="423" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45528433167820626</v>
+        <v>0.79026930767247849</v>
       </c>
       <c r="B423" s="2">
         <v>97</v>
@@ -12299,7 +12300,7 @@
     <row r="424" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.87543880483080017</v>
+        <v>0.67766892291016478</v>
       </c>
       <c r="B424" s="2">
         <v>292</v>
@@ -12323,7 +12324,7 @@
     <row r="425" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42578893837581722</v>
+        <v>3.7977145671135193E-2</v>
       </c>
       <c r="B425" s="2">
         <v>84</v>
@@ -12344,7 +12345,7 @@
     <row r="426" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7759737327704213E-2</v>
+        <v>0.66735962169476049</v>
       </c>
       <c r="B426" s="2">
         <v>362</v>
@@ -12371,7 +12372,7 @@
     <row r="427" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69484594646462006</v>
+        <v>0.65173635937238561</v>
       </c>
       <c r="B427" s="2">
         <v>71</v>
@@ -12395,7 +12396,7 @@
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54636908286099606</v>
+        <v>0.78554706533909835</v>
       </c>
       <c r="B428" s="2">
         <v>1</v>
@@ -12416,7 +12417,7 @@
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49061569918984116</v>
+        <v>0.9535820753913018</v>
       </c>
       <c r="B429" s="2">
         <v>181</v>
@@ -12437,7 +12438,7 @@
     <row r="430" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55532686872621939</v>
+        <v>0.88647097357476379</v>
       </c>
       <c r="B430" s="2">
         <v>146</v>
@@ -12461,7 +12462,7 @@
     <row r="431" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94069739864082702</v>
+        <v>0.69631335143089246</v>
       </c>
       <c r="B431" s="2">
         <v>172</v>
@@ -12482,7 +12483,7 @@
     <row r="432" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>8.491195773523541E-2</v>
+        <v>0.62782825727223557</v>
       </c>
       <c r="B432" s="2">
         <v>136</v>
@@ -12506,7 +12507,7 @@
     <row r="433" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60681994547806306</v>
+        <v>0.34863994741652971</v>
       </c>
       <c r="B433" s="2">
         <v>439</v>
@@ -12533,7 +12534,7 @@
     <row r="434" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71820180841752235</v>
+        <v>0.99848597824882246</v>
       </c>
       <c r="B434" s="2">
         <v>115</v>
@@ -12554,7 +12555,7 @@
     <row r="435" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9252924828764346E-3</v>
+        <v>0.3678312452864726</v>
       </c>
       <c r="B435" s="2">
         <v>347</v>
@@ -12581,7 +12582,7 @@
     <row r="436" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3274014246934398</v>
+        <v>0.32385373621979585</v>
       </c>
       <c r="B436" s="2">
         <v>158</v>
@@ -12605,7 +12606,7 @@
     <row r="437" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81568356541756204</v>
+        <v>0.71869233107770303</v>
       </c>
       <c r="B437" s="2">
         <v>248</v>
@@ -12626,7 +12627,7 @@
     <row r="438" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5939333581383861</v>
+        <v>0.99583530033480328</v>
       </c>
       <c r="B438" s="2">
         <v>192</v>
@@ -12647,7 +12648,7 @@
     <row r="439" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18118451299423888</v>
+        <v>0.40224618559392222</v>
       </c>
       <c r="B439" s="2">
         <v>353</v>
@@ -12671,7 +12672,7 @@
     <row r="440" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84659179408034013</v>
+        <v>0.69175948553725342</v>
       </c>
       <c r="B440" s="2">
         <v>345</v>
@@ -12695,7 +12696,7 @@
     <row r="441" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74571918938231696</v>
+        <v>0.91363995282008992</v>
       </c>
       <c r="B441" s="2">
         <v>178</v>
@@ -12716,7 +12717,7 @@
     <row r="442" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.336195154471845</v>
+        <v>0.86022102628972585</v>
       </c>
       <c r="B442" s="2">
         <v>206</v>
@@ -12905,7 +12906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+    <sheetView topLeftCell="A428" workbookViewId="0">
       <selection activeCell="A480" sqref="A443:XFD480"/>
     </sheetView>
   </sheetViews>
